--- a/Code/Results/Cases/Case_8_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,105 +439,123 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008149010498378</v>
+        <v>1.006129835640277</v>
       </c>
       <c r="D2">
-        <v>1.026951583991497</v>
+        <v>1.025024087661235</v>
       </c>
       <c r="E2">
-        <v>1.023132778853647</v>
+        <v>1.021526136786812</v>
       </c>
       <c r="F2">
-        <v>1.033309296211443</v>
+        <v>1.0320267511649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05149141173709</v>
+        <v>1.050494446781759</v>
       </c>
       <c r="J2">
-        <v>1.030088688247369</v>
+        <v>1.028128737492467</v>
       </c>
       <c r="K2">
-        <v>1.038047787956001</v>
+        <v>1.036145467036643</v>
       </c>
       <c r="L2">
-        <v>1.034278976572704</v>
+        <v>1.032693507906438</v>
       </c>
       <c r="M2">
-        <v>1.044323293345912</v>
+        <v>1.043057229938378</v>
       </c>
       <c r="N2">
-        <v>1.031551532337508</v>
+        <v>1.025368779588765</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04365129735246</v>
+        <v>1.042649296718804</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037973351050246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.0366370266373</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021711887140311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.011983202263924</v>
+        <v>1.009626569281926</v>
       </c>
       <c r="D3">
-        <v>1.029478525960102</v>
+        <v>1.02723536726871</v>
       </c>
       <c r="E3">
-        <v>1.026115047239106</v>
+        <v>1.024235811938327</v>
       </c>
       <c r="F3">
-        <v>1.036176226659749</v>
+        <v>1.03467970524847</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052342296666196</v>
+        <v>1.051181237783656</v>
       </c>
       <c r="J3">
-        <v>1.032152439448607</v>
+        <v>1.02985820062207</v>
       </c>
       <c r="K3">
-        <v>1.039747621076845</v>
+        <v>1.037531233929443</v>
       </c>
       <c r="L3">
-        <v>1.036424339015607</v>
+        <v>1.034567704989992</v>
       </c>
       <c r="M3">
-        <v>1.046366239973441</v>
+        <v>1.044887278496271</v>
       </c>
       <c r="N3">
-        <v>1.033618214302163</v>
+        <v>1.026338458458812</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045268143814907</v>
+        <v>1.044097651707994</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039172616262001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037613941113207</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021980422841603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014420105198716</v>
+        <v>1.011851044018732</v>
       </c>
       <c r="D4">
-        <v>1.031086098332038</v>
+        <v>1.028643526031127</v>
       </c>
       <c r="E4">
-        <v>1.02801641808089</v>
+        <v>1.02596535696996</v>
       </c>
       <c r="F4">
-        <v>1.038004789959198</v>
+        <v>1.036373448689313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052870074346463</v>
+        <v>1.051605154790695</v>
       </c>
       <c r="J4">
-        <v>1.033462000162688</v>
+        <v>1.030956381412267</v>
       </c>
       <c r="K4">
-        <v>1.0408232774955</v>
+        <v>1.038408115922731</v>
       </c>
       <c r="L4">
-        <v>1.037788071312138</v>
+        <v>1.035760186361796</v>
       </c>
       <c r="M4">
-        <v>1.04766518761713</v>
+        <v>1.046051836926701</v>
       </c>
       <c r="N4">
-        <v>1.034929634742668</v>
+        <v>1.026954184793542</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04629616632154</v>
+        <v>1.045019316473123</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039934094423757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038234953041459</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022147847445372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015437143050819</v>
+        <v>1.012779766281651</v>
       </c>
       <c r="D5">
-        <v>1.031759194131998</v>
+        <v>1.029233664528798</v>
       </c>
       <c r="E5">
-        <v>1.028811550334194</v>
+        <v>1.026688998816529</v>
       </c>
       <c r="F5">
-        <v>1.038769136577438</v>
+        <v>1.037081720875177</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053088412293541</v>
+        <v>1.051780236620257</v>
       </c>
       <c r="J5">
-        <v>1.034009240584515</v>
+        <v>1.031415537503369</v>
       </c>
       <c r="K5">
-        <v>1.041273466280377</v>
+        <v>1.038775530983327</v>
       </c>
       <c r="L5">
-        <v>1.038358045099574</v>
+        <v>1.036258837381616</v>
       </c>
       <c r="M5">
-        <v>1.048207678571754</v>
+        <v>1.046538377773781</v>
       </c>
       <c r="N5">
-        <v>1.035477652308663</v>
+        <v>1.027211622841086</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046725507997674</v>
+        <v>1.045404378436287</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040259583933637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03850263643269</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.0222178170244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015610722928691</v>
+        <v>1.012938150262211</v>
       </c>
       <c r="D6">
-        <v>1.031876344846965</v>
+        <v>1.029336659731542</v>
       </c>
       <c r="E6">
-        <v>1.028947592330511</v>
+        <v>1.026812729504705</v>
       </c>
       <c r="F6">
-        <v>1.038899305510188</v>
+        <v>1.037202243193353</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053127003801708</v>
+        <v>1.051811441929796</v>
       </c>
       <c r="J6">
-        <v>1.034104100749226</v>
+        <v>1.031495238472474</v>
       </c>
       <c r="K6">
-        <v>1.041353184315787</v>
+        <v>1.038841122249952</v>
       </c>
       <c r="L6">
-        <v>1.038456301351609</v>
+        <v>1.036344809978387</v>
       </c>
       <c r="M6">
-        <v>1.048300620382441</v>
+        <v>1.046621693397659</v>
       </c>
       <c r="N6">
-        <v>1.035572647185687</v>
+        <v>1.027256309251082</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046799064577426</v>
+        <v>1.045470316718801</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040324692301887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038558637681542</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022230791536835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014442861050389</v>
+        <v>1.011891752677322</v>
       </c>
       <c r="D7">
-        <v>1.031107162166726</v>
+        <v>1.028676624874481</v>
       </c>
       <c r="E7">
-        <v>1.028034893562989</v>
+        <v>1.025999004686831</v>
       </c>
       <c r="F7">
-        <v>1.038020887489344</v>
+        <v>1.036401198017344</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052879008098983</v>
+        <v>1.051620514491642</v>
       </c>
       <c r="J7">
-        <v>1.033478237714207</v>
+        <v>1.030990100135328</v>
       </c>
       <c r="K7">
-        <v>1.040841225191724</v>
+        <v>1.038437952708684</v>
       </c>
       <c r="L7">
-        <v>1.037803446587462</v>
+        <v>1.035790553316301</v>
       </c>
       <c r="M7">
-        <v>1.047678253065601</v>
+        <v>1.046076418803672</v>
       </c>
       <c r="N7">
-        <v>1.034945895353372</v>
+        <v>1.027025350069163</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046306506665639</v>
+        <v>1.045038771259338</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039966891472482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038278183843306</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022156606756958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009465361104661</v>
+        <v>1.007392701692883</v>
       </c>
       <c r="D8">
-        <v>1.027826073975756</v>
+        <v>1.025833359965677</v>
       </c>
       <c r="E8">
-        <v>1.024156311213962</v>
+        <v>1.022508762611775</v>
       </c>
       <c r="F8">
-        <v>1.034290980432272</v>
+        <v>1.03297544964523</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051791036470727</v>
+        <v>1.050760729567517</v>
       </c>
       <c r="J8">
-        <v>1.030802511444186</v>
+        <v>1.028788609365768</v>
       </c>
       <c r="K8">
-        <v>1.038641866925543</v>
+        <v>1.03667441252126</v>
       </c>
       <c r="L8">
-        <v>1.035018717168805</v>
+        <v>1.033392231597687</v>
       </c>
       <c r="M8">
-        <v>1.045025659368018</v>
+        <v>1.04372653175556</v>
       </c>
       <c r="N8">
-        <v>1.032266369245138</v>
+        <v>1.025897207653289</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044207170338536</v>
+        <v>1.043179002465371</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038416332800576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037036248219847</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02182171149976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000327588251699</v>
+        <v>0.9990843680301252</v>
       </c>
       <c r="D9">
-        <v>1.021807461145788</v>
+        <v>1.020582760419393</v>
       </c>
       <c r="E9">
-        <v>1.017083477800137</v>
+        <v>1.016104885087078</v>
       </c>
       <c r="F9">
-        <v>1.027498053524578</v>
+        <v>1.026707873403569</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049686522045509</v>
+        <v>1.049054367284374</v>
       </c>
       <c r="J9">
-        <v>1.025868783834365</v>
+        <v>1.024669501106408</v>
       </c>
       <c r="K9">
-        <v>1.034556365306961</v>
+        <v>1.033350495581221</v>
       </c>
       <c r="L9">
-        <v>1.029905337256679</v>
+        <v>1.028941965942764</v>
       </c>
       <c r="M9">
-        <v>1.040160209426104</v>
+        <v>1.039382001666757</v>
       </c>
       <c r="N9">
-        <v>1.027325635176205</v>
+        <v>1.023606914367828</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040356502404687</v>
+        <v>1.039740602754369</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035524425736181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034682551113667</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02116298924768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9940421920785462</v>
+        <v>0.9934736199237226</v>
       </c>
       <c r="D10">
-        <v>1.017685352527478</v>
+        <v>1.017058798885396</v>
       </c>
       <c r="E10">
-        <v>1.012287899812002</v>
+        <v>1.011855000000076</v>
       </c>
       <c r="F10">
-        <v>1.02294383939503</v>
+        <v>1.022581702034126</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04818992121737</v>
+        <v>1.047867617633331</v>
       </c>
       <c r="J10">
-        <v>1.022494199553173</v>
+        <v>1.021948589714821</v>
       </c>
       <c r="K10">
-        <v>1.031742469253851</v>
+        <v>1.031126734045846</v>
       </c>
       <c r="L10">
-        <v>1.026438781001418</v>
+        <v>1.026013457655965</v>
       </c>
       <c r="M10">
-        <v>1.036910834618598</v>
+        <v>1.036554865295123</v>
       </c>
       <c r="N10">
-        <v>1.023946258598263</v>
+        <v>1.02231483384053</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037836313477347</v>
+        <v>1.037554604119328</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033551662033229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03312874392655</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020721011833154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9917647472974425</v>
+        <v>0.9915496916886104</v>
       </c>
       <c r="D11">
-        <v>1.016226071638897</v>
+        <v>1.015889676166221</v>
       </c>
       <c r="E11">
-        <v>1.010830651265425</v>
+        <v>1.010685266455154</v>
       </c>
       <c r="F11">
-        <v>1.021941534747673</v>
+        <v>1.021805818588301</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047752708573291</v>
+        <v>1.04758220817974</v>
       </c>
       <c r="J11">
-        <v>1.021484181367616</v>
+        <v>1.021278288358007</v>
       </c>
       <c r="K11">
-        <v>1.030848340915339</v>
+        <v>1.030518031305325</v>
       </c>
       <c r="L11">
-        <v>1.025551167460228</v>
+        <v>1.025408448910867</v>
       </c>
       <c r="M11">
-        <v>1.036461198221926</v>
+        <v>1.036327901210279</v>
       </c>
       <c r="N11">
-        <v>1.022934806071031</v>
+        <v>1.022384548057694</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037916967749165</v>
+        <v>1.037811531407746</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032952400619537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032734523001643</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020636724142511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9910877021586176</v>
+        <v>0.990976895939257</v>
       </c>
       <c r="D12">
-        <v>1.015798308351036</v>
+        <v>1.01554656459852</v>
       </c>
       <c r="E12">
-        <v>1.010515532256028</v>
+        <v>1.010452998099527</v>
       </c>
       <c r="F12">
-        <v>1.021924502029811</v>
+        <v>1.021855403399869</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047667914702995</v>
+        <v>1.047542042292234</v>
       </c>
       <c r="J12">
-        <v>1.02127409512267</v>
+        <v>1.021168100503282</v>
       </c>
       <c r="K12">
-        <v>1.030628970073641</v>
+        <v>1.03038185736908</v>
       </c>
       <c r="L12">
-        <v>1.025444006636635</v>
+        <v>1.025382638316833</v>
       </c>
       <c r="M12">
-        <v>1.036643381710064</v>
+        <v>1.036575534174028</v>
       </c>
       <c r="N12">
-        <v>1.02272442147952</v>
+        <v>1.022516289381171</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03838759447316</v>
+        <v>1.038333946066692</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03279729753877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032638245105961</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020630851619418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9916109243288818</v>
+        <v>0.9914029608266415</v>
       </c>
       <c r="D13">
-        <v>1.016151518961548</v>
+        <v>1.01582077966642</v>
       </c>
       <c r="E13">
-        <v>1.011071368870123</v>
+        <v>1.01092683332847</v>
       </c>
       <c r="F13">
-        <v>1.022685086236021</v>
+        <v>1.022554113814751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047862479879158</v>
+        <v>1.047695970878544</v>
       </c>
       <c r="J13">
-        <v>1.021680680849499</v>
+        <v>1.021481702454438</v>
       </c>
       <c r="K13">
-        <v>1.030932670321423</v>
+        <v>1.030607990035542</v>
       </c>
       <c r="L13">
-        <v>1.025946156646814</v>
+        <v>1.025804303115086</v>
       </c>
       <c r="M13">
-        <v>1.037347589439019</v>
+        <v>1.037218976092362</v>
       </c>
       <c r="N13">
-        <v>1.023131584604717</v>
+        <v>1.022649352192722</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039221110369899</v>
+        <v>1.039119438785214</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033009525122837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032795382995189</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020689730077471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9925199669325308</v>
+        <v>0.9921569791324523</v>
       </c>
       <c r="D14">
-        <v>1.016753027432691</v>
+        <v>1.016296098039809</v>
       </c>
       <c r="E14">
-        <v>1.011852748433214</v>
+        <v>1.011580288855419</v>
       </c>
       <c r="F14">
-        <v>1.023567229564671</v>
+        <v>1.023337855419943</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048124801552557</v>
+        <v>1.047892922062314</v>
       </c>
       <c r="J14">
-        <v>1.02224337320789</v>
+        <v>1.021895842621746</v>
       </c>
       <c r="K14">
-        <v>1.031382337851867</v>
+        <v>1.030933675868909</v>
       </c>
       <c r="L14">
-        <v>1.02657122860064</v>
+        <v>1.026303759951009</v>
       </c>
       <c r="M14">
-        <v>1.038074384423018</v>
+        <v>1.037849087841572</v>
       </c>
       <c r="N14">
-        <v>1.023695076050799</v>
+        <v>1.022745822259357</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039968936556216</v>
+        <v>1.039790858853894</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033328884860628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033027217577275</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020761721279317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9930085193936907</v>
+        <v>0.9925658046112378</v>
       </c>
       <c r="D15">
-        <v>1.017075941891537</v>
+        <v>1.016553955104113</v>
       </c>
       <c r="E15">
-        <v>1.012242497693971</v>
+        <v>1.011904882871068</v>
       </c>
       <c r="F15">
-        <v>1.023967553883697</v>
+        <v>1.023687644223958</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048253587733829</v>
+        <v>1.047987922318592</v>
       </c>
       <c r="J15">
-        <v>1.022522203764965</v>
+        <v>1.022098176000992</v>
       </c>
       <c r="K15">
-        <v>1.031612678984669</v>
+        <v>1.03110006523485</v>
       </c>
       <c r="L15">
-        <v>1.026866507307872</v>
+        <v>1.0265350289807</v>
       </c>
       <c r="M15">
-        <v>1.038381703630832</v>
+        <v>1.038106731280079</v>
       </c>
       <c r="N15">
-        <v>1.023974302579248</v>
+        <v>1.022778937761954</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040249371086275</v>
+        <v>1.040032034646202</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033497630201237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033151318160588</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020796184841786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.995572292814135</v>
+        <v>0.9947406814319527</v>
       </c>
       <c r="D16">
-        <v>1.01875810357945</v>
+        <v>1.017915166259561</v>
       </c>
       <c r="E16">
-        <v>1.014172791838515</v>
+        <v>1.013519901937791</v>
       </c>
       <c r="F16">
-        <v>1.025783379535136</v>
+        <v>1.025256979447569</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048870804906663</v>
+        <v>1.048438140430636</v>
       </c>
       <c r="J16">
-        <v>1.023885338706124</v>
+        <v>1.023087071782206</v>
       </c>
       <c r="K16">
-        <v>1.032761029283519</v>
+        <v>1.031932568510676</v>
       </c>
       <c r="L16">
-        <v>1.028254841441244</v>
+        <v>1.027613293146629</v>
       </c>
       <c r="M16">
-        <v>1.039666847352334</v>
+        <v>1.039149324984344</v>
       </c>
       <c r="N16">
-        <v>1.025339373328377</v>
+        <v>1.022928001772402</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041226441817834</v>
+        <v>1.040817383646471</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034312731230687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033743405048255</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020957184350847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9970646186195595</v>
+        <v>0.9960324406699046</v>
       </c>
       <c r="D17">
-        <v>1.019735224559674</v>
+        <v>1.018723088022618</v>
       </c>
       <c r="E17">
-        <v>1.015245804165296</v>
+        <v>1.014431019762239</v>
       </c>
       <c r="F17">
-        <v>1.026710072702034</v>
+        <v>1.026056258460834</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049203768256659</v>
+        <v>1.048682939829483</v>
       </c>
       <c r="J17">
-        <v>1.024636068437083</v>
+        <v>1.023643944794148</v>
       </c>
       <c r="K17">
-        <v>1.033405851373898</v>
+        <v>1.03241060895999</v>
       </c>
       <c r="L17">
-        <v>1.028991697402564</v>
+        <v>1.028190665246237</v>
       </c>
       <c r="M17">
-        <v>1.040265442909885</v>
+        <v>1.039622347104074</v>
       </c>
       <c r="N17">
-        <v>1.026091169181663</v>
+        <v>1.023051899921714</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041570608394362</v>
+        <v>1.041062244280666</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03477123841878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034084240990985</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021044443160025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9977601724053172</v>
+        <v>0.9966495472768568</v>
       </c>
       <c r="D18">
-        <v>1.020180406375673</v>
+        <v>1.019099784826343</v>
       </c>
       <c r="E18">
-        <v>1.015650404376971</v>
+        <v>1.014772919707603</v>
       </c>
       <c r="F18">
-        <v>1.026906535103345</v>
+        <v>1.026202152612508</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049314451471859</v>
+        <v>1.048757661342902</v>
       </c>
       <c r="J18">
-        <v>1.024908065603745</v>
+        <v>1.023839730983657</v>
       </c>
       <c r="K18">
-        <v>1.033659660165752</v>
+        <v>1.032596778882771</v>
       </c>
       <c r="L18">
-        <v>1.029204351123461</v>
+        <v>1.028341434147334</v>
       </c>
       <c r="M18">
-        <v>1.040276445165287</v>
+        <v>1.03958342726662</v>
       </c>
       <c r="N18">
-        <v>1.026363552615501</v>
+        <v>1.023079158463222</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041341734023579</v>
+        <v>1.040793792591206</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034939030886051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034203066248983</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021067066984533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9977370469869529</v>
+        <v>0.9966444647348626</v>
       </c>
       <c r="D19">
-        <v>1.02015232032305</v>
+        <v>1.019085426136521</v>
       </c>
       <c r="E19">
-        <v>1.015446088727714</v>
+        <v>1.014584194930027</v>
       </c>
       <c r="F19">
-        <v>1.026433475217966</v>
+        <v>1.025739333819118</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049229945936073</v>
+        <v>1.048679731923382</v>
       </c>
       <c r="J19">
-        <v>1.024750690434882</v>
+        <v>1.023699469802977</v>
       </c>
       <c r="K19">
-        <v>1.033569306150155</v>
+        <v>1.032519834297904</v>
       </c>
       <c r="L19">
-        <v>1.028940281509452</v>
+        <v>1.028092627175974</v>
       </c>
       <c r="M19">
-        <v>1.039748831941615</v>
+        <v>1.039065843270663</v>
       </c>
       <c r="N19">
-        <v>1.026205953955846</v>
+        <v>1.022977277954369</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040599184941221</v>
+        <v>1.040058996794953</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034881554398302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034155699864707</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021032000130575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9956948177555718</v>
+        <v>0.9948881375704467</v>
       </c>
       <c r="D20">
-        <v>1.018782165161528</v>
+        <v>1.017957211059789</v>
       </c>
       <c r="E20">
-        <v>1.01354999591838</v>
+        <v>1.01292228222864</v>
       </c>
       <c r="F20">
-        <v>1.02414026088995</v>
+        <v>1.023626178071916</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048597462289716</v>
+        <v>1.04817196146813</v>
       </c>
       <c r="J20">
-        <v>1.02339271167482</v>
+        <v>1.022617545136156</v>
       </c>
       <c r="K20">
-        <v>1.032502601587376</v>
+        <v>1.031691486486602</v>
       </c>
       <c r="L20">
-        <v>1.027358697192042</v>
+        <v>1.026741651909089</v>
       </c>
       <c r="M20">
-        <v>1.037771511110935</v>
+        <v>1.03726593314565</v>
       </c>
       <c r="N20">
-        <v>1.024846046710183</v>
+        <v>1.022494048967532</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038506891560938</v>
+        <v>1.038106779132237</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034131279761776</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033574344326982</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020832972868051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9908757193196741</v>
+        <v>0.9908713541650495</v>
       </c>
       <c r="D21">
-        <v>1.015618056054858</v>
+        <v>1.015448310451449</v>
       </c>
       <c r="E21">
-        <v>1.009833043370614</v>
+        <v>1.009865531404934</v>
       </c>
       <c r="F21">
-        <v>1.020538374314681</v>
+        <v>1.02053796613373</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047403451896942</v>
+        <v>1.047319076480058</v>
       </c>
       <c r="J21">
-        <v>1.020759939137786</v>
+        <v>1.020755761319661</v>
       </c>
       <c r="K21">
-        <v>1.030309460035702</v>
+        <v>1.030142803578805</v>
       </c>
       <c r="L21">
-        <v>1.024630490035437</v>
+        <v>1.024662378123318</v>
       </c>
       <c r="M21">
-        <v>1.035140815277369</v>
+        <v>1.035140414430403</v>
       </c>
       <c r="N21">
-        <v>1.022209535334163</v>
+        <v>1.022262964254748</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036383976679854</v>
+        <v>1.036383659434531</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032583878908372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032482927049294</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020535889636863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.98780679144362</v>
+        <v>0.9882948838346062</v>
       </c>
       <c r="D22">
-        <v>1.013603210265264</v>
+        <v>1.013838306702167</v>
       </c>
       <c r="E22">
-        <v>1.007490454848705</v>
+        <v>1.007928674576435</v>
       </c>
       <c r="F22">
-        <v>1.018295093714553</v>
+        <v>1.018610556806342</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046634341287759</v>
+        <v>1.046760332968702</v>
       </c>
       <c r="J22">
-        <v>1.01909164486367</v>
+        <v>1.01955756400568</v>
       </c>
       <c r="K22">
-        <v>1.028909917281754</v>
+        <v>1.029140519918187</v>
       </c>
       <c r="L22">
-        <v>1.022914970614941</v>
+        <v>1.023344682375844</v>
       </c>
       <c r="M22">
-        <v>1.033512629680419</v>
+        <v>1.033822135786886</v>
       </c>
       <c r="N22">
-        <v>1.020538871890821</v>
+        <v>1.022065021776768</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035095368361448</v>
+        <v>1.035340323505436</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031580790144298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031759414909454</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020340461876123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.989431629240513</v>
+        <v>0.9896311795911005</v>
       </c>
       <c r="D23">
-        <v>1.014664751940182</v>
+        <v>1.014665857812176</v>
       </c>
       <c r="E23">
-        <v>1.008729086770477</v>
+        <v>1.008928567564527</v>
       </c>
       <c r="F23">
-        <v>1.019482734722615</v>
+        <v>1.019612610545845</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047039757778476</v>
+        <v>1.047043999514734</v>
       </c>
       <c r="J23">
-        <v>1.019971699888669</v>
+        <v>1.02016245198583</v>
       </c>
       <c r="K23">
-        <v>1.029644972384798</v>
+        <v>1.029646057656649</v>
       </c>
       <c r="L23">
-        <v>1.023820727131974</v>
+        <v>1.024016435595952</v>
       </c>
       <c r="M23">
-        <v>1.034373758442185</v>
+        <v>1.034501245037648</v>
       </c>
       <c r="N23">
-        <v>1.0214201766949</v>
+        <v>1.022083038313579</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035776898871964</v>
+        <v>1.035877796624234</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032090841727092</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03210624297563</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020435844080668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9957119589245131</v>
+        <v>0.9949049323055933</v>
       </c>
       <c r="D24">
-        <v>1.01878285453245</v>
+        <v>1.017957120275974</v>
       </c>
       <c r="E24">
-        <v>1.01353511043593</v>
+        <v>1.012907306238556</v>
       </c>
       <c r="F24">
-        <v>1.024090694037719</v>
+        <v>1.023576279823391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048585350140358</v>
+        <v>1.048159377420542</v>
       </c>
       <c r="J24">
-        <v>1.023376078550286</v>
+        <v>1.022600533255135</v>
       </c>
       <c r="K24">
-        <v>1.032487960252154</v>
+        <v>1.031676060308006</v>
       </c>
       <c r="L24">
-        <v>1.027328631732845</v>
+        <v>1.026711484180955</v>
       </c>
       <c r="M24">
-        <v>1.037707557864414</v>
+        <v>1.037201644150749</v>
       </c>
       <c r="N24">
-        <v>1.024829389964704</v>
+        <v>1.022476543533131</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038415390131338</v>
+        <v>1.038014992072996</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034093458353177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033533277869848</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020825105083899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002747973995785</v>
+        <v>1.001256547134024</v>
       </c>
       <c r="D25">
-        <v>1.02340855401577</v>
+        <v>1.021961460556316</v>
       </c>
       <c r="E25">
-        <v>1.018952214460464</v>
+        <v>1.01777267740427</v>
       </c>
       <c r="F25">
-        <v>1.029289350882492</v>
+        <v>1.028341701280823</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050261201044395</v>
+        <v>1.049513704742868</v>
       </c>
       <c r="J25">
-        <v>1.027183210443293</v>
+        <v>1.02574169732754</v>
       </c>
       <c r="K25">
-        <v>1.035654033999055</v>
+        <v>1.034228157320737</v>
       </c>
       <c r="L25">
-        <v>1.031263276926639</v>
+        <v>1.030101220910284</v>
       </c>
       <c r="M25">
-        <v>1.041449386475964</v>
+        <v>1.04051542193406</v>
       </c>
       <c r="N25">
-        <v>1.028641928421684</v>
+        <v>1.024141890400657</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04137679908441</v>
+        <v>1.040637629289575</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036329174218012</v>
+        <v>1.035334569846948</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021339192616598</v>
       </c>
     </row>
   </sheetData>
